--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -100,7 +100,7 @@
     <t>北京荣景苑图书有限公司</t>
   </si>
   <si>
-    <t>2024年5月14日</t>
+    <t>2025年5月14日</t>
   </si>
   <si>
     <t>安徽时代出版发行有限公司</t>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>书商单位</t>
   </si>
@@ -40,70 +40,73 @@
     <t>湖北三新文化传媒有限公司</t>
   </si>
   <si>
+    <t>2025年5月21日</t>
+  </si>
+  <si>
+    <t>广东新华发行集团股份有限公司</t>
+  </si>
+  <si>
+    <t>2024年12月31日</t>
+  </si>
+  <si>
+    <t>江苏凤凰新华书店集团有限公司</t>
+  </si>
+  <si>
+    <t>2025年3月30日</t>
+  </si>
+  <si>
+    <t>北京思得乐图书有限公司</t>
+  </si>
+  <si>
+    <t>2025年4月20日</t>
+  </si>
+  <si>
+    <t>北京人天书店集团股份有限公司</t>
+  </si>
+  <si>
+    <t>2025年5月11日</t>
+  </si>
+  <si>
+    <t>安徽新华传媒股份有限公司</t>
+  </si>
+  <si>
+    <t>2024年6月9日</t>
+  </si>
+  <si>
+    <t>中国图书进出口（集团）有限公司</t>
+  </si>
+  <si>
+    <t>2024年11月7日</t>
+  </si>
+  <si>
+    <t>博库书城上海有限公司</t>
+  </si>
+  <si>
+    <t>2024年9月30日</t>
+  </si>
+  <si>
+    <t>上海外文图书有限公司</t>
+  </si>
+  <si>
+    <t>上海新华传媒连锁有限公司</t>
+  </si>
+  <si>
+    <t>山东中教产业发展股份有限公司</t>
+  </si>
+  <si>
+    <t>2024年5月3日</t>
+  </si>
+  <si>
+    <t>北京荣景苑图书有限公司</t>
+  </si>
+  <si>
+    <t>2025年5月14日</t>
+  </si>
+  <si>
+    <t>安徽时代出版发行有限公司</t>
+  </si>
+  <si>
     <t>2024年5月21日</t>
-  </si>
-  <si>
-    <t>广东新华发行集团股份有限公司</t>
-  </si>
-  <si>
-    <t>2024年12月31日</t>
-  </si>
-  <si>
-    <t>江苏凤凰新华书店集团有限公司</t>
-  </si>
-  <si>
-    <t>2025年3月30日</t>
-  </si>
-  <si>
-    <t>北京思得乐图书有限公司</t>
-  </si>
-  <si>
-    <t>2025年4月20日</t>
-  </si>
-  <si>
-    <t>北京人天书店集团股份有限公司</t>
-  </si>
-  <si>
-    <t>2025年5月11日</t>
-  </si>
-  <si>
-    <t>安徽新华传媒股份有限公司</t>
-  </si>
-  <si>
-    <t>2024年6月9日</t>
-  </si>
-  <si>
-    <t>中国图书进出口（集团）有限公司</t>
-  </si>
-  <si>
-    <t>2024年11月7日</t>
-  </si>
-  <si>
-    <t>博库书城上海有限公司</t>
-  </si>
-  <si>
-    <t>2024年9月30日</t>
-  </si>
-  <si>
-    <t>上海外文图书有限公司</t>
-  </si>
-  <si>
-    <t>上海新华传媒连锁有限公司</t>
-  </si>
-  <si>
-    <t>山东中教产业发展股份有限公司</t>
-  </si>
-  <si>
-    <t>2024年5月3日</t>
-  </si>
-  <si>
-    <t>北京荣景苑图书有限公司</t>
-  </si>
-  <si>
-    <t>2025年5月14日</t>
-  </si>
-  <si>
-    <t>安徽时代出版发行有限公司</t>
   </si>
   <si>
     <t>中国图书进出口上海有限公司</t>
@@ -1130,7 +1133,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1248,12 +1251,12 @@
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>书商单位</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>2025年4月30日</t>
+  </si>
+  <si>
+    <t>辽宁北方出版物配送有限公司</t>
+  </si>
+  <si>
+    <t>2025年7月11日</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +159,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -629,150 +649,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -781,8 +804,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,144 +1159,152 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView windowWidth="22188" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>书商单位</t>
   </si>
@@ -40,13 +40,13 @@
     <t>湖北三新文化传媒有限公司</t>
   </si>
   <si>
-    <t>2025年5月21日</t>
+    <t>2026年5月21日</t>
   </si>
   <si>
     <t>广东新华发行集团股份有限公司</t>
   </si>
   <si>
-    <t>2024年12月31日</t>
+    <t>2025年12月31日</t>
   </si>
   <si>
     <t>江苏凤凰新华书店集团有限公司</t>
@@ -82,12 +82,15 @@
     <t>博库书城上海有限公司</t>
   </si>
   <si>
+    <t>2025年9月30日</t>
+  </si>
+  <si>
+    <t>上海外文图书有限公司</t>
+  </si>
+  <si>
     <t>2024年9月30日</t>
   </si>
   <si>
-    <t>上海外文图书有限公司</t>
-  </si>
-  <si>
     <t>上海新华传媒连锁有限公司</t>
   </si>
   <si>
@@ -122,6 +125,12 @@
   </si>
   <si>
     <t>2025年7月11日</t>
+  </si>
+  <si>
+    <t>浙江省新华书店集团馆藏图书有限公司</t>
+  </si>
+  <si>
+    <t>2026年2月9日</t>
   </si>
 </sst>
 </file>
@@ -314,12 +323,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -655,7 +670,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +694,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -697,89 +712,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,20 +813,29 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1196,7 +1220,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1204,7 +1228,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1212,7 +1236,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1220,15 +1244,15 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1236,7 +1260,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1244,67 +1268,75 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>19</v>
+      <c r="A11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
+      <c r="A12" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
+      <c r="A13" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
+      <c r="A14" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
+      <c r="A15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
+      <c r="A16" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
+      <c r="A17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>书商单位</t>
   </si>
@@ -52,7 +52,7 @@
     <t>江苏凤凰新华书店集团有限公司</t>
   </si>
   <si>
-    <t>2025年3月30日</t>
+    <t>2026年3月31日</t>
   </si>
   <si>
     <t>北京思得乐图书有限公司</t>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>2026年2月9日</t>
+  </si>
+  <si>
+    <t>上海图书有限公司</t>
   </si>
 </sst>
 </file>
@@ -813,13 +816,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -831,10 +834,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1223,12 +1226,12 @@
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1236,7 +1239,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1260,7 +1263,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1284,7 +1287,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1308,7 +1311,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1332,11 +1335,19 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -58,13 +58,13 @@
     <t>北京思得乐图书有限公司</t>
   </si>
   <si>
-    <t>2025年4月20日</t>
+    <t>2026年4月20日</t>
   </si>
   <si>
     <t>北京人天书店集团股份有限公司</t>
   </si>
   <si>
-    <t>2025年5月11日</t>
+    <t>2026年5月11日</t>
   </si>
   <si>
     <t>安徽新华传媒股份有限公司</t>
@@ -118,7 +118,7 @@
     <t>北京百万庄图书大厦有限公司</t>
   </si>
   <si>
-    <t>2025年4月30日</t>
+    <t>2026年4月30日</t>
   </si>
   <si>
     <t>辽宁北方出版物配送有限公司</t>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +822,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +841,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1195,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1231,31 +1237,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1263,7 +1269,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1271,7 +1277,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1279,7 +1285,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1287,15 +1293,15 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1303,15 +1309,15 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1319,15 +1325,15 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1335,7 +1341,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1343,7 +1349,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="8" t="s">

--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>上海外文图书有限公司</t>
   </si>
   <si>
-    <t>2024年9月30日</t>
+    <t>2026年9月30日</t>
   </si>
   <si>
     <t>上海新华传媒连锁有限公司</t>
@@ -103,7 +103,7 @@
     <t>北京荣景苑图书有限公司</t>
   </si>
   <si>
-    <t>2025年5月14日</t>
+    <t>2026年5月14日</t>
   </si>
   <si>
     <t>安徽时代出版发行有限公司</t>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,9 +822,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +838,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,16 +1189,16 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.8888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.8846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1153846153846" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1229,39 +1223,39 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1269,7 +1263,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1277,7 +1271,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1285,7 +1279,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1293,15 +1287,15 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1309,15 +1303,15 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1325,15 +1319,15 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1341,7 +1335,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1349,10 +1343,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1372,7 +1366,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1389,7 +1383,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
